--- a/assets/template/jadwal_praktikum_template.xlsx
+++ b/assets/template/jadwal_praktikum_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\praktikum_ukp\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BD7033-C4C7-4D10-91C9-18AB3A272EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F919DB1-0AA3-4D24-8FB2-3C54B3D6EECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5F779B0-6B5F-42AF-BE54-829724A82B50}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Kode MK</t>
   </si>
@@ -69,6 +69,27 @@
   </si>
   <si>
     <t>Kode Lab</t>
+  </si>
+  <si>
+    <t>TF4XX</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Senin</t>
+  </si>
+  <si>
+    <t>7:30</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>104xx</t>
+  </si>
+  <si>
+    <t>praktikum</t>
   </si>
 </sst>
 </file>
@@ -112,11 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B0B173-294C-4C2F-B233-F502C4E3B1FB}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,6 +497,32 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
